--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.672484</v>
+        <v>1.7872655</v>
       </c>
       <c r="H2">
-        <v>7.344968</v>
+        <v>3.574531</v>
       </c>
       <c r="I2">
-        <v>0.16941414656804</v>
+        <v>0.101191370732167</v>
       </c>
       <c r="J2">
-        <v>0.139073352017148</v>
+        <v>0.07984252496841394</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.057665</v>
+        <v>0.08210149999999999</v>
       </c>
       <c r="N2">
-        <v>0.11533</v>
+        <v>0.164203</v>
       </c>
       <c r="O2">
-        <v>0.01620051839411325</v>
+        <v>0.01959206455542894</v>
       </c>
       <c r="P2">
-        <v>0.01129612699459945</v>
+        <v>0.0143098977453608</v>
       </c>
       <c r="Q2">
-        <v>0.21177378986</v>
+        <v>0.14673717844825</v>
       </c>
       <c r="R2">
-        <v>0.84709515944</v>
+        <v>0.586948713793</v>
       </c>
       <c r="S2">
-        <v>0.00274459699769853</v>
+        <v>0.001982547867836958</v>
       </c>
       <c r="T2">
-        <v>0.001570990245950337</v>
+        <v>0.001142538368029421</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.672484</v>
+        <v>1.7872655</v>
       </c>
       <c r="H3">
-        <v>7.344968</v>
+        <v>3.574531</v>
       </c>
       <c r="I3">
-        <v>0.16941414656804</v>
+        <v>0.101191370732167</v>
       </c>
       <c r="J3">
-        <v>0.139073352017148</v>
+        <v>0.07984252496841394</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>9.243680000000001</v>
       </c>
       <c r="O3">
-        <v>0.8656458734026811</v>
+        <v>0.7352800102707316</v>
       </c>
       <c r="P3">
-        <v>0.9053826686676408</v>
+        <v>0.8055645487039627</v>
       </c>
       <c r="Q3">
-        <v>11.31575563370667</v>
+        <v>5.506970119013334</v>
       </c>
       <c r="R3">
-        <v>67.89453380224001</v>
+        <v>33.04182071408</v>
       </c>
       <c r="S3">
-        <v>0.1466526568726608</v>
+        <v>0.07440399211125716</v>
       </c>
       <c r="T3">
-        <v>0.1259146025898397</v>
+        <v>0.06431830759356524</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.672484</v>
+        <v>1.7872655</v>
       </c>
       <c r="H4">
-        <v>7.344968</v>
+        <v>3.574531</v>
       </c>
       <c r="I4">
-        <v>0.16941414656804</v>
+        <v>0.101191370732167</v>
       </c>
       <c r="J4">
-        <v>0.139073352017148</v>
+        <v>0.07984252496841394</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.411003</v>
+        <v>0.012461</v>
       </c>
       <c r="N4">
-        <v>0.822006</v>
+        <v>0.037383</v>
       </c>
       <c r="O4">
-        <v>0.1154679903153686</v>
+        <v>0.002973596297573126</v>
       </c>
       <c r="P4">
-        <v>0.08051230526595606</v>
+        <v>0.003257838817895063</v>
       </c>
       <c r="Q4">
-        <v>1.509401941452</v>
+        <v>0.0222711153955</v>
       </c>
       <c r="R4">
-        <v>6.037607765808</v>
+        <v>0.133626692373</v>
       </c>
       <c r="S4">
-        <v>0.01956191103520488</v>
+        <v>0.0003009022853555214</v>
       </c>
       <c r="T4">
-        <v>0.01119711617196438</v>
+        <v>0.0002601140771608547</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.672484</v>
+        <v>1.7872655</v>
       </c>
       <c r="H5">
-        <v>7.344968</v>
+        <v>3.574531</v>
       </c>
       <c r="I5">
-        <v>0.16941414656804</v>
+        <v>0.101191370732167</v>
       </c>
       <c r="J5">
-        <v>0.139073352017148</v>
+        <v>0.07984252496841394</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.009559333333333333</v>
+        <v>1.0147595</v>
       </c>
       <c r="N5">
-        <v>0.028678</v>
+        <v>2.029519</v>
       </c>
       <c r="O5">
-        <v>0.002685617887837104</v>
+        <v>0.2421543288762665</v>
       </c>
       <c r="P5">
-        <v>0.002808899071803719</v>
+        <v>0.1768677147327815</v>
       </c>
       <c r="Q5">
-        <v>0.03510649871733333</v>
+        <v>1.81364464514725</v>
       </c>
       <c r="R5">
-        <v>0.210638992304</v>
+        <v>7.254578580588999</v>
       </c>
       <c r="S5">
-        <v>0.0004549816624757851</v>
+        <v>0.02450392846771737</v>
       </c>
       <c r="T5">
-        <v>0.0003906430093935988</v>
+        <v>0.01412156492965842</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>16.585895</v>
       </c>
       <c r="I6">
-        <v>0.2550394815872238</v>
+        <v>0.3130199831101003</v>
       </c>
       <c r="J6">
-        <v>0.3140457540256751</v>
+        <v>0.3704709053190453</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.057665</v>
+        <v>0.08210149999999999</v>
       </c>
       <c r="N6">
-        <v>0.11533</v>
+        <v>0.164203</v>
       </c>
       <c r="O6">
-        <v>0.01620051839411325</v>
+        <v>0.01959206455542894</v>
       </c>
       <c r="P6">
-        <v>0.01129612699459945</v>
+        <v>0.0143098977453608</v>
       </c>
       <c r="Q6">
-        <v>0.3188085450583333</v>
+        <v>0.4539089527808333</v>
       </c>
       <c r="R6">
-        <v>1.91285127035</v>
+        <v>2.723453716685</v>
       </c>
       <c r="S6">
-        <v>0.004131771812678927</v>
+        <v>0.00613270771623236</v>
       </c>
       <c r="T6">
-        <v>0.003547500719588766</v>
+        <v>0.005301400772746782</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>16.585895</v>
       </c>
       <c r="I7">
-        <v>0.2550394815872238</v>
+        <v>0.3130199831101003</v>
       </c>
       <c r="J7">
-        <v>0.3140457540256751</v>
+        <v>0.3704709053190453</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,10 +877,10 @@
         <v>9.243680000000001</v>
       </c>
       <c r="O7">
-        <v>0.8656458734026811</v>
+        <v>0.7352800102707316</v>
       </c>
       <c r="P7">
-        <v>0.9053826686676408</v>
+        <v>0.8055645487039627</v>
       </c>
       <c r="Q7">
         <v>17.03496732151111</v>
@@ -889,10 +889,10 @@
         <v>153.3147058936</v>
       </c>
       <c r="S7">
-        <v>0.2207738747907393</v>
+        <v>0.2301573363961388</v>
       </c>
       <c r="T7">
-        <v>0.2843315828635072</v>
+        <v>0.2984382276512852</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>16.585895</v>
       </c>
       <c r="I8">
-        <v>0.2550394815872238</v>
+        <v>0.3130199831101003</v>
       </c>
       <c r="J8">
-        <v>0.3140457540256751</v>
+        <v>0.3704709053190453</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.411003</v>
+        <v>0.012461</v>
       </c>
       <c r="N8">
-        <v>0.822006</v>
+        <v>0.037383</v>
       </c>
       <c r="O8">
-        <v>0.1154679903153686</v>
+        <v>0.002973596297573126</v>
       </c>
       <c r="P8">
-        <v>0.08051230526595606</v>
+        <v>0.003257838817895063</v>
       </c>
       <c r="Q8">
-        <v>2.272284200895</v>
+        <v>0.06889227919833334</v>
       </c>
       <c r="R8">
-        <v>13.63370520537</v>
+        <v>0.620030512785</v>
       </c>
       <c r="S8">
-        <v>0.02944889638995018</v>
+        <v>0.0009307950628425966</v>
       </c>
       <c r="T8">
-        <v>0.0252845476155925</v>
+        <v>0.001206934496249112</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>16.585895</v>
       </c>
       <c r="I9">
-        <v>0.2550394815872238</v>
+        <v>0.3130199831101003</v>
       </c>
       <c r="J9">
-        <v>0.3140457540256751</v>
+        <v>0.3704709053190453</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.009559333333333333</v>
+        <v>1.0147595</v>
       </c>
       <c r="N9">
-        <v>0.028678</v>
+        <v>2.029519</v>
       </c>
       <c r="O9">
-        <v>0.002685617887837104</v>
+        <v>0.2421543288762665</v>
       </c>
       <c r="P9">
-        <v>0.002808899071803719</v>
+        <v>0.1768677147327815</v>
       </c>
       <c r="Q9">
-        <v>0.05285003297888888</v>
+        <v>5.610231505750832</v>
       </c>
       <c r="R9">
-        <v>0.47565029681</v>
+        <v>33.66138903450499</v>
       </c>
       <c r="S9">
-        <v>0.0006849385938553499</v>
+        <v>0.07579914393488658</v>
       </c>
       <c r="T9">
-        <v>0.0008821228269866178</v>
+        <v>0.06552434239876419</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.120594</v>
+        <v>2.754647666666667</v>
       </c>
       <c r="H10">
-        <v>3.361782</v>
+        <v>8.263943000000001</v>
       </c>
       <c r="I10">
-        <v>0.05169375173840545</v>
+        <v>0.1559625994426488</v>
       </c>
       <c r="J10">
-        <v>0.06365368664518507</v>
+        <v>0.1845875935374598</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.057665</v>
+        <v>0.08210149999999999</v>
       </c>
       <c r="N10">
-        <v>0.11533</v>
+        <v>0.164203</v>
       </c>
       <c r="O10">
-        <v>0.01620051839411325</v>
+        <v>0.01959206455542894</v>
       </c>
       <c r="P10">
-        <v>0.01129612699459945</v>
+        <v>0.0143098977453608</v>
       </c>
       <c r="Q10">
-        <v>0.06461905301</v>
+        <v>0.2261607054048334</v>
       </c>
       <c r="R10">
-        <v>0.38771431806</v>
+        <v>1.356964232429</v>
       </c>
       <c r="S10">
-        <v>0.0008374655758987614</v>
+        <v>0.003055629316512881</v>
       </c>
       <c r="T10">
-        <v>0.0007190401280184494</v>
+        <v>0.002641429588583273</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.120594</v>
+        <v>2.754647666666667</v>
       </c>
       <c r="H11">
-        <v>3.361782</v>
+        <v>8.263943000000001</v>
       </c>
       <c r="I11">
-        <v>0.05169375173840545</v>
+        <v>0.1559625994426488</v>
       </c>
       <c r="J11">
-        <v>0.06365368664518507</v>
+        <v>0.1845875935374598</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1125,22 @@
         <v>9.243680000000001</v>
       </c>
       <c r="O11">
-        <v>0.8656458734026811</v>
+        <v>0.7352800102707316</v>
       </c>
       <c r="P11">
-        <v>0.9053826686676408</v>
+        <v>0.8055645487039627</v>
       </c>
       <c r="Q11">
-        <v>3.452804115306667</v>
+        <v>8.487693847804447</v>
       </c>
       <c r="R11">
-        <v>31.07523703776</v>
+        <v>76.38924463024001</v>
       </c>
       <c r="S11">
-        <v>0.04474848287305335</v>
+        <v>0.1146761817200408</v>
       </c>
       <c r="T11">
-        <v>0.05763094468535143</v>
+        <v>0.1486972214843543</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.120594</v>
+        <v>2.754647666666667</v>
       </c>
       <c r="H12">
-        <v>3.361782</v>
+        <v>8.263943000000001</v>
       </c>
       <c r="I12">
-        <v>0.05169375173840545</v>
+        <v>0.1559625994426488</v>
       </c>
       <c r="J12">
-        <v>0.06365368664518507</v>
+        <v>0.1845875935374598</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.411003</v>
+        <v>0.012461</v>
       </c>
       <c r="N12">
-        <v>0.822006</v>
+        <v>0.037383</v>
       </c>
       <c r="O12">
-        <v>0.1154679903153686</v>
+        <v>0.002973596297573126</v>
       </c>
       <c r="P12">
-        <v>0.08051230526595606</v>
+        <v>0.003257838817895063</v>
       </c>
       <c r="Q12">
-        <v>0.460567495782</v>
+        <v>0.03432566457433334</v>
       </c>
       <c r="R12">
-        <v>2.763404974692</v>
+        <v>0.308930981169</v>
       </c>
       <c r="S12">
-        <v>0.005968973625095268</v>
+        <v>0.000463769808262541</v>
       </c>
       <c r="T12">
-        <v>0.005124905050480651</v>
+        <v>0.0006013566275281724</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.754647666666667</v>
+      </c>
+      <c r="H13">
+        <v>8.263943000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.1559625994426488</v>
+      </c>
+      <c r="J13">
+        <v>0.1845875935374598</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>1.120594</v>
-      </c>
-      <c r="H13">
-        <v>3.361782</v>
-      </c>
-      <c r="I13">
-        <v>0.05169375173840545</v>
-      </c>
-      <c r="J13">
-        <v>0.06365368664518507</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.009559333333333333</v>
+        <v>1.0147595</v>
       </c>
       <c r="N13">
-        <v>0.028678</v>
+        <v>2.029519</v>
       </c>
       <c r="O13">
-        <v>0.002685617887837104</v>
+        <v>0.2421543288762665</v>
       </c>
       <c r="P13">
-        <v>0.002808899071803719</v>
+        <v>0.1768677147327815</v>
       </c>
       <c r="Q13">
-        <v>0.01071213157733333</v>
+        <v>2.795304888902833</v>
       </c>
       <c r="R13">
-        <v>0.09640918419599999</v>
+        <v>16.771829333417</v>
       </c>
       <c r="S13">
-        <v>0.0001388296643580721</v>
+        <v>0.03776701859783259</v>
       </c>
       <c r="T13">
-        <v>0.0001787967813345451</v>
+        <v>0.03264758583699406</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.5465465</v>
+        <v>6.4296675</v>
       </c>
       <c r="H14">
-        <v>17.093093</v>
+        <v>12.859335</v>
       </c>
       <c r="I14">
-        <v>0.3942579140988958</v>
+        <v>0.3640348161350763</v>
       </c>
       <c r="J14">
-        <v>0.3236492983837163</v>
+        <v>0.2872325840270232</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.057665</v>
+        <v>0.08210149999999999</v>
       </c>
       <c r="N14">
-        <v>0.11533</v>
+        <v>0.164203</v>
       </c>
       <c r="O14">
-        <v>0.01620051839411325</v>
+        <v>0.01959206455542894</v>
       </c>
       <c r="P14">
-        <v>0.01129612699459945</v>
+        <v>0.0143098977453608</v>
       </c>
       <c r="Q14">
-        <v>0.4928366039225</v>
+        <v>0.5278853462512499</v>
       </c>
       <c r="R14">
-        <v>1.97134641569</v>
+        <v>2.111541385005</v>
       </c>
       <c r="S14">
-        <v>0.006387182589383885</v>
+        <v>0.007132193618142119</v>
       </c>
       <c r="T14">
-        <v>0.003655983576255469</v>
+        <v>0.004110268906562457</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.5465465</v>
+        <v>6.4296675</v>
       </c>
       <c r="H15">
-        <v>17.093093</v>
+        <v>12.859335</v>
       </c>
       <c r="I15">
-        <v>0.3942579140988958</v>
+        <v>0.3640348161350763</v>
       </c>
       <c r="J15">
-        <v>0.3236492983837163</v>
+        <v>0.2872325840270232</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>9.243680000000001</v>
       </c>
       <c r="O15">
-        <v>0.8656458734026811</v>
+        <v>0.7352800102707316</v>
       </c>
       <c r="P15">
-        <v>0.9053826686676408</v>
+        <v>0.8055645487039627</v>
       </c>
       <c r="Q15">
-        <v>26.33384698370667</v>
+        <v>19.8112629588</v>
       </c>
       <c r="R15">
-        <v>158.00308190224</v>
+        <v>118.8675777528</v>
       </c>
       <c r="S15">
-        <v>0.3412877363960579</v>
+        <v>0.2676675233467028</v>
       </c>
       <c r="T15">
-        <v>0.2930264654830587</v>
+        <v>0.231384386924802</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.5465465</v>
+        <v>6.4296675</v>
       </c>
       <c r="H16">
-        <v>17.093093</v>
+        <v>12.859335</v>
       </c>
       <c r="I16">
-        <v>0.3942579140988958</v>
+        <v>0.3640348161350763</v>
       </c>
       <c r="J16">
-        <v>0.3236492983837163</v>
+        <v>0.2872325840270232</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.411003</v>
+        <v>0.012461</v>
       </c>
       <c r="N16">
-        <v>0.822006</v>
+        <v>0.037383</v>
       </c>
       <c r="O16">
-        <v>0.1154679903153686</v>
+        <v>0.002973596297573126</v>
       </c>
       <c r="P16">
-        <v>0.08051230526595606</v>
+        <v>0.003257838817895063</v>
       </c>
       <c r="Q16">
-        <v>3.5126562511395</v>
+        <v>0.0801200867175</v>
       </c>
       <c r="R16">
-        <v>14.050625004558</v>
+        <v>0.480720520305</v>
       </c>
       <c r="S16">
-        <v>0.04552416900692872</v>
+        <v>0.001082492581446977</v>
       </c>
       <c r="T16">
-        <v>0.02605775111058227</v>
+        <v>0.0009357574620075417</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.5465465</v>
+        <v>6.4296675</v>
       </c>
       <c r="H17">
-        <v>17.093093</v>
+        <v>12.859335</v>
       </c>
       <c r="I17">
-        <v>0.3942579140988958</v>
+        <v>0.3640348161350763</v>
       </c>
       <c r="J17">
-        <v>0.3236492983837163</v>
+        <v>0.2872325840270232</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.009559333333333333</v>
+        <v>1.0147595</v>
       </c>
       <c r="N17">
-        <v>0.028678</v>
+        <v>2.029519</v>
       </c>
       <c r="O17">
-        <v>0.002685617887837104</v>
+        <v>0.2421543288762665</v>
       </c>
       <c r="P17">
-        <v>0.002808899071803719</v>
+        <v>0.1768677147327815</v>
       </c>
       <c r="Q17">
-        <v>0.08169928684233332</v>
+        <v>6.524566177466249</v>
       </c>
       <c r="R17">
-        <v>0.4901957210539999</v>
+        <v>26.098264709865</v>
       </c>
       <c r="S17">
-        <v>0.001058826106525339</v>
+        <v>0.08815260658878446</v>
       </c>
       <c r="T17">
-        <v>0.0009090982138199456</v>
+        <v>0.05080217073365122</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.317076</v>
+        <v>0.4594446666666667</v>
       </c>
       <c r="H18">
-        <v>3.951228</v>
+        <v>1.378334</v>
       </c>
       <c r="I18">
-        <v>0.06075759799232559</v>
+        <v>0.02601283110740041</v>
       </c>
       <c r="J18">
-        <v>0.07481455637982515</v>
+        <v>0.03078716251441486</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,28 +1553,28 @@
         <v>0.5</v>
       </c>
       <c r="M18">
-        <v>0.057665</v>
+        <v>0.08210149999999999</v>
       </c>
       <c r="N18">
-        <v>0.11533</v>
+        <v>0.164203</v>
       </c>
       <c r="O18">
-        <v>0.01620051839411325</v>
+        <v>0.01959206455542894</v>
       </c>
       <c r="P18">
-        <v>0.01129612699459945</v>
+        <v>0.0143098977453608</v>
       </c>
       <c r="Q18">
-        <v>0.07594918753999999</v>
+        <v>0.03772109630033333</v>
       </c>
       <c r="R18">
-        <v>0.45569512524</v>
+        <v>0.226326577802</v>
       </c>
       <c r="S18">
-        <v>0.0009843045838568091</v>
+        <v>0.0005096450663256589</v>
       </c>
       <c r="T18">
-        <v>0.000845114729911125</v>
+        <v>0.0004405611474510819</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.317076</v>
+        <v>0.4594446666666667</v>
       </c>
       <c r="H19">
-        <v>3.951228</v>
+        <v>1.378334</v>
       </c>
       <c r="I19">
-        <v>0.06075759799232559</v>
+        <v>0.02601283110740041</v>
       </c>
       <c r="J19">
-        <v>0.07481455637982515</v>
+        <v>0.03078716251441486</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1621,22 +1621,22 @@
         <v>9.243680000000001</v>
       </c>
       <c r="O19">
-        <v>0.8656458734026811</v>
+        <v>0.7352800102707316</v>
       </c>
       <c r="P19">
-        <v>0.9053826686676408</v>
+        <v>0.8055645487039627</v>
       </c>
       <c r="Q19">
-        <v>4.058209693226667</v>
+        <v>1.415653158791111</v>
       </c>
       <c r="R19">
-        <v>36.52388723904001</v>
+        <v>12.74087842912</v>
       </c>
       <c r="S19">
-        <v>0.05259456397991567</v>
+        <v>0.01912671472382018</v>
       </c>
       <c r="T19">
-        <v>0.06773580271035176</v>
+        <v>0.02480104667680016</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>1.317076</v>
+        <v>0.4594446666666667</v>
       </c>
       <c r="H20">
-        <v>3.951228</v>
+        <v>1.378334</v>
       </c>
       <c r="I20">
-        <v>0.06075759799232559</v>
+        <v>0.02601283110740041</v>
       </c>
       <c r="J20">
-        <v>0.07481455637982515</v>
+        <v>0.03078716251441486</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.411003</v>
+        <v>0.012461</v>
       </c>
       <c r="N20">
-        <v>0.822006</v>
+        <v>0.037383</v>
       </c>
       <c r="O20">
-        <v>0.1154679903153686</v>
+        <v>0.002973596297573126</v>
       </c>
       <c r="P20">
-        <v>0.08051230526595606</v>
+        <v>0.003257838817895063</v>
       </c>
       <c r="Q20">
-        <v>0.541322187228</v>
+        <v>0.005725139991333333</v>
       </c>
       <c r="R20">
-        <v>3.247933123368</v>
+        <v>0.051526259922</v>
       </c>
       <c r="S20">
-        <v>0.007015557736562907</v>
+        <v>7.735165827036091E-05</v>
       </c>
       <c r="T20">
-        <v>0.006023492401589562</v>
+        <v>0.0001002996131323045</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,55 +1712,55 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>1.317076</v>
+        <v>0.4594446666666667</v>
       </c>
       <c r="H21">
-        <v>3.951228</v>
+        <v>1.378334</v>
       </c>
       <c r="I21">
-        <v>0.06075759799232559</v>
+        <v>0.02601283110740041</v>
       </c>
       <c r="J21">
-        <v>0.07481455637982515</v>
+        <v>0.03078716251441486</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.009559333333333333</v>
+        <v>1.0147595</v>
       </c>
       <c r="N21">
-        <v>0.028678</v>
+        <v>2.029519</v>
       </c>
       <c r="O21">
-        <v>0.002685617887837104</v>
+        <v>0.2421543288762665</v>
       </c>
       <c r="P21">
-        <v>0.002808899071803719</v>
+        <v>0.1768677147327815</v>
       </c>
       <c r="Q21">
-        <v>0.01259036850933333</v>
+        <v>0.4662258402243333</v>
       </c>
       <c r="R21">
-        <v>0.113313316584</v>
+        <v>2.797355041346</v>
       </c>
       <c r="S21">
-        <v>0.0001631716919902053</v>
+        <v>0.006299119658984213</v>
       </c>
       <c r="T21">
-        <v>0.0002101465379726979</v>
+        <v>0.005445255077031311</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.49222</v>
+        <v>0.7025753333333333</v>
       </c>
       <c r="H22">
-        <v>4.47666</v>
+        <v>2.107726</v>
       </c>
       <c r="I22">
-        <v>0.0688371080151093</v>
+        <v>0.03977839947260725</v>
       </c>
       <c r="J22">
-        <v>0.08476335254845027</v>
+        <v>0.04707922963364292</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,28 +1801,28 @@
         <v>0.5</v>
       </c>
       <c r="M22">
-        <v>0.057665</v>
+        <v>0.08210149999999999</v>
       </c>
       <c r="N22">
-        <v>0.11533</v>
+        <v>0.164203</v>
       </c>
       <c r="O22">
-        <v>0.01620051839411325</v>
+        <v>0.01959206455542894</v>
       </c>
       <c r="P22">
-        <v>0.01129612699459945</v>
+        <v>0.0143098977453608</v>
       </c>
       <c r="Q22">
-        <v>0.0860488663</v>
+        <v>0.05768248872966666</v>
       </c>
       <c r="R22">
-        <v>0.5162931978</v>
+        <v>0.346094932378</v>
       </c>
       <c r="S22">
-        <v>0.001115196834596339</v>
+        <v>0.0007793409703789616</v>
       </c>
       <c r="T22">
-        <v>0.0009574975948752988</v>
+        <v>0.0006736989619877903</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.49222</v>
+        <v>0.7025753333333333</v>
       </c>
       <c r="H23">
-        <v>4.47666</v>
+        <v>2.107726</v>
       </c>
       <c r="I23">
-        <v>0.0688371080151093</v>
+        <v>0.03977839947260725</v>
       </c>
       <c r="J23">
-        <v>0.08476335254845027</v>
+        <v>0.04707922963364292</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>9.243680000000001</v>
       </c>
       <c r="O23">
-        <v>0.8656458734026811</v>
+        <v>0.7352800102707316</v>
       </c>
       <c r="P23">
-        <v>0.9053826686676408</v>
+        <v>0.8055645487039627</v>
       </c>
       <c r="Q23">
-        <v>4.597868056533334</v>
+        <v>2.164793852408889</v>
       </c>
       <c r="R23">
-        <v>41.38081250880001</v>
+        <v>19.48314467168</v>
       </c>
       <c r="S23">
-        <v>0.05958855849025398</v>
+        <v>0.02924826197277193</v>
       </c>
       <c r="T23">
-        <v>0.07674327033553198</v>
+        <v>0.03792535837315578</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.49222</v>
+        <v>0.7025753333333333</v>
       </c>
       <c r="H24">
-        <v>4.47666</v>
+        <v>2.107726</v>
       </c>
       <c r="I24">
-        <v>0.0688371080151093</v>
+        <v>0.03977839947260725</v>
       </c>
       <c r="J24">
-        <v>0.08476335254845027</v>
+        <v>0.04707922963364292</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.411003</v>
+        <v>0.012461</v>
       </c>
       <c r="N24">
-        <v>0.822006</v>
+        <v>0.037383</v>
       </c>
       <c r="O24">
-        <v>0.1154679903153686</v>
+        <v>0.002973596297573126</v>
       </c>
       <c r="P24">
-        <v>0.08051230526595606</v>
+        <v>0.003257838817895063</v>
       </c>
       <c r="Q24">
-        <v>0.6133068966599999</v>
+        <v>0.008754791228666667</v>
       </c>
       <c r="R24">
-        <v>3.67984137996</v>
+        <v>0.078793121058</v>
       </c>
       <c r="S24">
-        <v>0.00794848252162662</v>
+        <v>0.0001182849013951297</v>
       </c>
       <c r="T24">
-        <v>0.006824492915746682</v>
+        <v>0.0001533765418170774</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.49222</v>
+        <v>0.7025753333333333</v>
       </c>
       <c r="H25">
-        <v>4.47666</v>
+        <v>2.107726</v>
       </c>
       <c r="I25">
-        <v>0.0688371080151093</v>
+        <v>0.03977839947260725</v>
       </c>
       <c r="J25">
-        <v>0.08476335254845027</v>
+        <v>0.04707922963364292</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.009559333333333333</v>
+        <v>1.0147595</v>
       </c>
       <c r="N25">
-        <v>0.028678</v>
+        <v>2.029519</v>
       </c>
       <c r="O25">
-        <v>0.002685617887837104</v>
+        <v>0.2421543288762665</v>
       </c>
       <c r="P25">
-        <v>0.002808899071803719</v>
+        <v>0.1768677147327815</v>
       </c>
       <c r="Q25">
-        <v>0.01426462838666667</v>
+        <v>0.7129449939656666</v>
       </c>
       <c r="R25">
-        <v>0.12838165548</v>
+        <v>4.277669963793999</v>
       </c>
       <c r="S25">
-        <v>0.0001848701686323524</v>
+        <v>0.00963251162806124</v>
       </c>
       <c r="T25">
-        <v>0.0002380917022963134</v>
+        <v>0.008326795756682267</v>
       </c>
     </row>
   </sheetData>
